--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2.2</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.42</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1.07</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2.09</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.96</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2.05</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.47</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.85</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2.01</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.82</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.97</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.8100000000000001</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.94</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.85</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.84</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.8100000000000001</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.77</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.78</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.7</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.7</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.65</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.63</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.5</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.54</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>

--- a/static/images/Fort_sector_monthly_variation.xlsx
+++ b/static/images/Fort_sector_monthly_variation.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.47</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.51</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.55</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
